--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Nrp2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H2">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I2">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J2">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>596.0909427100347</v>
+        <v>18.75926943421111</v>
       </c>
       <c r="R2">
-        <v>5364.818484390312</v>
+        <v>168.8334249079</v>
       </c>
       <c r="S2">
-        <v>0.3669930441884709</v>
+        <v>0.008493203455697981</v>
       </c>
       <c r="T2">
-        <v>0.3669930441884708</v>
+        <v>0.008493203455697981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H3">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I3">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J3">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>243.1280216248809</v>
+        <v>7.390551061856445</v>
       </c>
       <c r="R3">
-        <v>2188.152194623928</v>
+        <v>66.51495955670799</v>
       </c>
       <c r="S3">
-        <v>0.1496857046308772</v>
+        <v>0.003346050017470267</v>
       </c>
       <c r="T3">
-        <v>0.1496857046308772</v>
+        <v>0.003346050017470267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H4">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I4">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J4">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>251.8694718696951</v>
+        <v>8.592240572573777</v>
       </c>
       <c r="R4">
-        <v>2266.825246827256</v>
+        <v>77.33016515316399</v>
       </c>
       <c r="S4">
-        <v>0.1550675200655851</v>
+        <v>0.003890111370226762</v>
       </c>
       <c r="T4">
-        <v>0.1550675200655851</v>
+        <v>0.003890111370226763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H5">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I5">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J5">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>53.92274144786577</v>
+        <v>2.261470278884889</v>
       </c>
       <c r="R5">
-        <v>485.3046730307919</v>
+        <v>20.353232509964</v>
       </c>
       <c r="S5">
-        <v>0.03319840919738061</v>
+        <v>0.001023873944288873</v>
       </c>
       <c r="T5">
-        <v>0.03319840919738061</v>
+        <v>0.001023873944288873</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H6">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I6">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J6">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>142.589027867632</v>
+        <v>4.094473662800889</v>
       </c>
       <c r="R6">
-        <v>1283.301250808688</v>
+        <v>36.850262965208</v>
       </c>
       <c r="S6">
-        <v>0.08778724462262502</v>
+        <v>0.001853760775925829</v>
       </c>
       <c r="T6">
-        <v>0.08778724462262501</v>
+        <v>0.001853760775925829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.42000266666667</v>
+        <v>0.5295293333333333</v>
       </c>
       <c r="H7">
-        <v>52.260008</v>
+        <v>1.588588</v>
       </c>
       <c r="I7">
-        <v>0.9068449954692464</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="J7">
-        <v>0.9068449954692462</v>
+        <v>0.02820678560315924</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>185.3489328933493</v>
+        <v>21.20342150827333</v>
       </c>
       <c r="R7">
-        <v>1668.140396040144</v>
+        <v>190.83079357446</v>
       </c>
       <c r="S7">
-        <v>0.1141130727643075</v>
+        <v>0.009599786039549526</v>
       </c>
       <c r="T7">
-        <v>0.1141130727643075</v>
+        <v>0.009599786039549526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H8">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I8">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J8">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>0.5034378475103334</v>
+        <v>617.1263856368221</v>
       </c>
       <c r="R8">
-        <v>4.530940627593</v>
+        <v>5554.1374707314</v>
       </c>
       <c r="S8">
-        <v>0.0003099496653606816</v>
+        <v>0.2794021360732954</v>
       </c>
       <c r="T8">
-        <v>0.0003099496653606814</v>
+        <v>0.2794021360732954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H9">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I9">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J9">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
-        <v>0.2053375401407778</v>
+        <v>243.1280216248809</v>
       </c>
       <c r="R9">
-        <v>1.848037861267</v>
+        <v>2188.152194623928</v>
       </c>
       <c r="S9">
-        <v>0.0001264193825858777</v>
+        <v>0.110075488850096</v>
       </c>
       <c r="T9">
-        <v>0.0001264193825858777</v>
+        <v>0.110075488850096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H10">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I10">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J10">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>0.2127202674732222</v>
+        <v>282.6601743564915</v>
       </c>
       <c r="R10">
-        <v>1.914482407259</v>
+        <v>2543.941569208424</v>
       </c>
       <c r="S10">
-        <v>0.0001309646782513835</v>
+        <v>0.1279735534505747</v>
       </c>
       <c r="T10">
-        <v>0.0001309646782513835</v>
+        <v>0.1279735534505747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H11">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I11">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J11">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>0.04554128731255556</v>
+        <v>74.39591314191378</v>
       </c>
       <c r="R11">
-        <v>0.409871585813</v>
+        <v>669.563218277224</v>
       </c>
       <c r="S11">
-        <v>2.803823119860197E-05</v>
+        <v>0.0336825284589384</v>
       </c>
       <c r="T11">
-        <v>2.803823119860196E-05</v>
+        <v>0.0336825284589384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H12">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I12">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J12">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>0.120425774198</v>
+        <v>134.6964891927698</v>
       </c>
       <c r="R12">
-        <v>1.083831967782</v>
+        <v>1212.268402734928</v>
       </c>
       <c r="S12">
-        <v>7.414207850693021E-05</v>
+        <v>0.06098343496235024</v>
       </c>
       <c r="T12">
-        <v>7.41420785069302E-05</v>
+        <v>0.06098343496235024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01471233333333333</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H13">
-        <v>0.044137</v>
+        <v>52.260008</v>
       </c>
       <c r="I13">
-        <v>0.0007658900007253373</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="J13">
-        <v>0.0007658900007253371</v>
+        <v>0.9279226843431946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>0.1565393149406667</v>
+        <v>697.5320080787066</v>
       </c>
       <c r="R13">
-        <v>1.408853834466</v>
+        <v>6277.78807270836</v>
       </c>
       <c r="S13">
-        <v>9.637596482186229E-05</v>
+        <v>0.3158055425479398</v>
       </c>
       <c r="T13">
-        <v>9.637596482186227E-05</v>
+        <v>0.3158055425479398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H14">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I14">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J14">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>60.72957854043501</v>
+        <v>0.5212036569694445</v>
       </c>
       <c r="R14">
-        <v>546.566206863915</v>
+        <v>4.690832912725</v>
       </c>
       <c r="S14">
-        <v>0.0373891487086034</v>
+        <v>0.0002359734058951357</v>
       </c>
       <c r="T14">
-        <v>0.03738914870860339</v>
+        <v>0.0002359734058951357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H15">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I15">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J15">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>24.76981484993167</v>
+        <v>0.2053375401407778</v>
       </c>
       <c r="R15">
-        <v>222.928333649385</v>
+        <v>1.848037861267</v>
       </c>
       <c r="S15">
-        <v>0.01524993772667196</v>
+        <v>9.296596072807122E-05</v>
       </c>
       <c r="T15">
-        <v>0.01524993772667196</v>
+        <v>9.296596072807122E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H16">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I16">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J16">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>25.66039135623833</v>
+        <v>0.2387250326401111</v>
       </c>
       <c r="R16">
-        <v>230.943522206145</v>
+        <v>2.148525293761</v>
       </c>
       <c r="S16">
-        <v>0.01579823557808086</v>
+        <v>0.0001080820486795183</v>
       </c>
       <c r="T16">
-        <v>0.01579823557808086</v>
+        <v>0.0001080820486795183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H17">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I17">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J17">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>5.493633818668333</v>
+        <v>0.06283222188455556</v>
       </c>
       <c r="R17">
-        <v>49.44270436801499</v>
+        <v>0.565489996961</v>
       </c>
       <c r="S17">
-        <v>0.003382244644758106</v>
+        <v>2.844710162677672E-05</v>
       </c>
       <c r="T17">
-        <v>0.003382244644758105</v>
+        <v>2.844710162677672E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.774745</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H18">
-        <v>5.324235</v>
+        <v>0.044137</v>
       </c>
       <c r="I18">
-        <v>0.09238911453002845</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="J18">
-        <v>0.09238911453002843</v>
+        <v>0.0007836914896541076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>14.52693028269</v>
+        <v>0.1137600082935556</v>
       </c>
       <c r="R18">
-        <v>130.74237254421</v>
+        <v>1.023840074642</v>
       </c>
       <c r="S18">
-        <v>0.008943739931561853</v>
+        <v>5.150450548980498E-05</v>
       </c>
       <c r="T18">
-        <v>0.008943739931561853</v>
+        <v>5.1504505489805E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.044137</v>
+      </c>
+      <c r="I19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="J19">
+        <v>0.0007836914896541076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.042015</v>
+      </c>
+      <c r="N19">
+        <v>120.126045</v>
+      </c>
+      <c r="O19">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="P19">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="Q19">
+        <v>0.5891114720183334</v>
+      </c>
+      <c r="R19">
+        <v>5.302003248165001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002667184672348006</v>
+      </c>
+      <c r="T19">
+        <v>0.0002667184672348006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.161619</v>
+      </c>
+      <c r="I20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J20">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>35.42630833333333</v>
+      </c>
+      <c r="N20">
+        <v>106.278925</v>
+      </c>
+      <c r="O20">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="P20">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="Q20">
+        <v>25.52606039773055</v>
+      </c>
+      <c r="R20">
+        <v>229.734543579575</v>
+      </c>
+      <c r="S20">
+        <v>0.01155684794339528</v>
+      </c>
+      <c r="T20">
+        <v>0.01155684794339528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.161619</v>
+      </c>
+      <c r="I21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J21">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N21">
+        <v>41.870491</v>
+      </c>
+      <c r="O21">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="P21">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="Q21">
+        <v>10.05644987610322</v>
+      </c>
+      <c r="R21">
+        <v>90.508048884929</v>
+      </c>
+      <c r="S21">
+        <v>0.00455302777857699</v>
+      </c>
+      <c r="T21">
+        <v>0.00455302777857699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.161619</v>
+      </c>
+      <c r="I22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J22">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.22618433333333</v>
+      </c>
+      <c r="N22">
+        <v>48.678553</v>
+      </c>
+      <c r="O22">
+        <v>0.1379140262544151</v>
+      </c>
+      <c r="P22">
+        <v>0.1379140262544152</v>
+      </c>
+      <c r="Q22">
+        <v>11.69160945081189</v>
+      </c>
+      <c r="R22">
+        <v>105.224485057307</v>
+      </c>
+      <c r="S22">
+        <v>0.005293341413883401</v>
+      </c>
+      <c r="T22">
+        <v>0.005293341413883402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.161619</v>
+      </c>
+      <c r="I23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J23">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.270717666666667</v>
+      </c>
+      <c r="N23">
+        <v>12.812153</v>
+      </c>
+      <c r="O23">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="P23">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="Q23">
+        <v>3.077221483967445</v>
+      </c>
+      <c r="R23">
+        <v>27.694993355707</v>
+      </c>
+      <c r="S23">
+        <v>0.001393202876755816</v>
+      </c>
+      <c r="T23">
+        <v>0.001393202876755816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.161619</v>
+      </c>
+      <c r="I24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J24">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.732288666666666</v>
+      </c>
+      <c r="N24">
+        <v>23.196866</v>
+      </c>
+      <c r="O24">
+        <v>0.06572038381141176</v>
+      </c>
+      <c r="P24">
+        <v>0.06572038381141178</v>
+      </c>
+      <c r="Q24">
+        <v>5.571420698450444</v>
+      </c>
+      <c r="R24">
+        <v>50.142786286054</v>
+      </c>
+      <c r="S24">
+        <v>0.002522444154617821</v>
+      </c>
+      <c r="T24">
+        <v>0.002522444154617822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7205396666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.161619</v>
+      </c>
+      <c r="I25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="J25">
+        <v>0.03838145805502464</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.042015</v>
+      </c>
+      <c r="N25">
+        <v>120.126045</v>
+      </c>
+      <c r="O25">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="P25">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="Q25">
+        <v>28.85186014076167</v>
+      </c>
+      <c r="R25">
+        <v>259.666741266855</v>
+      </c>
+      <c r="S25">
+        <v>0.01306259388779533</v>
+      </c>
+      <c r="T25">
+        <v>0.01306259388779533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.265004</v>
+      </c>
+      <c r="I26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J26">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>35.42630833333333</v>
+      </c>
+      <c r="N26">
+        <v>106.278925</v>
+      </c>
+      <c r="O26">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="P26">
+        <v>0.3011049743557705</v>
+      </c>
+      <c r="Q26">
+        <v>3.129371137855556</v>
+      </c>
+      <c r="R26">
+        <v>28.1643402407</v>
+      </c>
+      <c r="S26">
+        <v>0.001416813477486792</v>
+      </c>
+      <c r="T26">
+        <v>0.001416813477486792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.265004</v>
+      </c>
+      <c r="I27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J27">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N27">
+        <v>41.870491</v>
+      </c>
+      <c r="O27">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="P27">
+        <v>0.1186257117186547</v>
+      </c>
+      <c r="Q27">
+        <v>1.232871955218222</v>
+      </c>
+      <c r="R27">
+        <v>11.095847596964</v>
+      </c>
+      <c r="S27">
+        <v>0.0005581791117833516</v>
+      </c>
+      <c r="T27">
+        <v>0.0005581791117833516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.265004</v>
+      </c>
+      <c r="I28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J28">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.22618433333333</v>
+      </c>
+      <c r="N28">
+        <v>48.678553</v>
+      </c>
+      <c r="O28">
+        <v>0.1379140262544151</v>
+      </c>
+      <c r="P28">
+        <v>0.1379140262544152</v>
+      </c>
+      <c r="Q28">
+        <v>1.433334584356889</v>
+      </c>
+      <c r="R28">
+        <v>12.900011259212</v>
+      </c>
+      <c r="S28">
+        <v>0.0006489379710507526</v>
+      </c>
+      <c r="T28">
+        <v>0.0006489379710507528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.265004</v>
+      </c>
+      <c r="I29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J29">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.270717666666667</v>
+      </c>
+      <c r="N29">
+        <v>12.812153</v>
+      </c>
+      <c r="O29">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="P29">
+        <v>0.03629885229369049</v>
+      </c>
+      <c r="Q29">
+        <v>0.3772524215124445</v>
+      </c>
+      <c r="R29">
+        <v>3.395271793612</v>
+      </c>
+      <c r="S29">
+        <v>0.0001707999120806203</v>
+      </c>
+      <c r="T29">
+        <v>0.0001707999120806203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.774745</v>
-      </c>
-      <c r="H19">
-        <v>5.324235</v>
-      </c>
-      <c r="I19">
-        <v>0.09238911453002845</v>
-      </c>
-      <c r="J19">
-        <v>0.09238911453002843</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.640006</v>
-      </c>
-      <c r="N19">
-        <v>31.920018</v>
-      </c>
-      <c r="O19">
-        <v>0.1258352566694816</v>
-      </c>
-      <c r="P19">
-        <v>0.1258352566694816</v>
-      </c>
-      <c r="Q19">
-        <v>18.88329744847</v>
-      </c>
-      <c r="R19">
-        <v>169.94967703623</v>
-      </c>
-      <c r="S19">
-        <v>0.01162580794035226</v>
-      </c>
-      <c r="T19">
-        <v>0.01162580794035226</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.265004</v>
+      </c>
+      <c r="I30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J30">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.732288666666666</v>
+      </c>
+      <c r="N30">
+        <v>23.196866</v>
+      </c>
+      <c r="O30">
+        <v>0.06572038381141176</v>
+      </c>
+      <c r="P30">
+        <v>0.06572038381141178</v>
+      </c>
+      <c r="Q30">
+        <v>0.6830291419404445</v>
+      </c>
+      <c r="R30">
+        <v>6.147262277464001</v>
+      </c>
+      <c r="S30">
+        <v>0.000309239413028078</v>
+      </c>
+      <c r="T30">
+        <v>0.0003092394130280781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.08833466666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.265004</v>
+      </c>
+      <c r="I31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="J31">
+        <v>0.004705380508967468</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>40.042015</v>
+      </c>
+      <c r="N31">
+        <v>120.126045</v>
+      </c>
+      <c r="O31">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="P31">
+        <v>0.3403360515660573</v>
+      </c>
+      <c r="Q31">
+        <v>3.537098047686667</v>
+      </c>
+      <c r="R31">
+        <v>31.83388242918</v>
+      </c>
+      <c r="S31">
+        <v>0.001601410623537873</v>
+      </c>
+      <c r="T31">
+        <v>0.001601410623537873</v>
       </c>
     </row>
   </sheetData>
